--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Codeforces\Algo2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\top_k\top_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C9568-ED13-41B3-B5DD-C04621C3E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA65D30-F4FA-449A-B72A-20946214F1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Number of docs</t>
   </si>
@@ -102,6 +102,63 @@
       <t>word3("for the music")</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(imp)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(inb)</t>
+    </r>
+  </si>
+  <si>
+    <t>%improv</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,27 +262,99 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Inbuilt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> V/s Implemented approaches</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13824263857144831"/>
+          <c:y val="0.17485563980847871"/>
+          <c:w val="0.59839102727845483"/>
+          <c:h val="0.63412880770794089"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Implemented</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$8</c:f>
@@ -254,39 +384,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4837.2222222222226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13257.777777777777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22293.222222222223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290462.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1487236.7777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5498-4175-83B2-98BEAD5E2083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Inbuilt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12648.777777777777</c:v>
+                  <c:v>13280.777777777777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16914.111111111109</c:v>
+                  <c:v>17759.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32396.666666666668</c:v>
+                  <c:v>34016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75269</c:v>
+                  <c:v>79032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300932.88888888888</c:v>
+                  <c:v>315979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1578922</c:v>
+                  <c:v>1657867.6666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F12D-4E0E-AEED-5DD7C07FCD7B}"/>
+              <c16:uniqueId val="{00000003-5498-4175-83B2-98BEAD5E2083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -294,120 +473,119 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="373359536"/>
-        <c:axId val="582293984"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="38100" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-F12D-4E0E-AEED-5DD7C07FCD7B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="314785296"/>
+        <c:axId val="320220448"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="373359536"/>
+        <c:axId val="314785296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of docs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -423,7 +601,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -436,7 +614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582293984"/>
+        <c:crossAx val="320220448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -444,19 +622,20 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582293984"/>
+        <c:axId val="320220448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -464,22 +643,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in microseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -496,7 +720,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -509,12 +733,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373359536"/>
+        <c:crossAx val="314785296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -522,7 +756,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -538,7 +772,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -553,7 +787,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -565,11 +799,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -637,25 +871,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -663,7 +897,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -671,9 +905,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -682,11 +916,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -701,30 +935,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -771,7 +1010,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="38100" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -780,7 +1019,9 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -790,11 +1031,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -818,22 +1065,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -849,13 +1097,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -867,14 +1116,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -886,9 +1135,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -904,6 +1153,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -915,9 +1177,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -934,9 +1197,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -951,84 +1215,92 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1039,9 +1311,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1055,12 +1327,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1076,7 +1348,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1085,7 +1356,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1103,13 +1374,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1118,7 +1390,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1132,31 +1404,88 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428433</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523187</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E7D836-851D-8731-2872-35144DEAD2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428433" y="4911687"/>
+          <a:ext cx="3759393" cy="1663786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>58738</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539227</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>530226</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426763</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176784</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6CD83A-7960-464B-47C8-B0BC2813DD01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09A7C3D-CE0B-686E-FBF2-0309E10AD854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1497,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1440,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1451,7 +1780,7 @@
     <col min="1" max="1" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,8 +1802,14 @@
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,231 +1843,578 @@
       <c r="K2" s="4"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7481</v>
+        <v>7855</v>
       </c>
       <c r="C3">
-        <v>6981</v>
+        <v>7330</v>
       </c>
       <c r="D3">
-        <v>16634</v>
+        <v>17465</v>
       </c>
       <c r="E3">
-        <v>20425</v>
+        <v>21446</v>
       </c>
       <c r="F3">
-        <v>22692</v>
+        <v>23826</v>
       </c>
       <c r="G3">
-        <v>8969</v>
+        <v>9417</v>
       </c>
       <c r="H3">
-        <v>6048</v>
+        <v>6350</v>
       </c>
       <c r="I3">
-        <v>9070</v>
+        <v>9523</v>
       </c>
       <c r="J3">
-        <v>15539</v>
+        <v>16315</v>
       </c>
       <c r="K3">
         <f>SUM(B3:J3)/9</f>
-        <v>12648.777777777777</v>
+        <v>13280.777777777777</v>
+      </c>
+      <c r="N3">
+        <v>13280.777777777777</v>
+      </c>
+      <c r="O3">
+        <v>4837.2222222222226</v>
+      </c>
+      <c r="P3">
+        <f>((N3-O3)/N3)*100</f>
+        <v>63.577267060998764</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>18079</v>
+        <v>18982</v>
       </c>
       <c r="C4">
-        <v>6403</v>
+        <v>6723</v>
       </c>
       <c r="D4">
-        <v>29184</v>
+        <v>30643</v>
       </c>
       <c r="E4">
-        <v>17433</v>
+        <v>18304</v>
       </c>
       <c r="F4">
-        <v>16114</v>
+        <v>16919</v>
       </c>
       <c r="G4">
-        <v>17429</v>
+        <v>18300</v>
       </c>
       <c r="H4">
-        <v>15765</v>
+        <v>16553</v>
       </c>
       <c r="I4">
-        <v>16132</v>
+        <v>16938</v>
       </c>
       <c r="J4">
-        <v>15688</v>
+        <v>16472</v>
       </c>
       <c r="K4">
         <f>SUM(B4:J4)/9</f>
-        <v>16914.111111111109</v>
+        <v>17759.333333333332</v>
+      </c>
+      <c r="N4">
+        <v>17759.333333333332</v>
+      </c>
+      <c r="O4">
+        <v>13257.777777777777</v>
+      </c>
+      <c r="P4">
+        <f>((N4-O4)/N4)*100</f>
+        <v>25.347548081134175</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>35301</v>
+        <v>37066</v>
       </c>
       <c r="C5">
-        <v>29086</v>
+        <v>30540</v>
       </c>
       <c r="D5">
-        <v>33279</v>
+        <v>34942</v>
       </c>
       <c r="E5">
-        <v>29522</v>
+        <v>30998</v>
       </c>
       <c r="F5">
-        <v>31457</v>
+        <v>33029</v>
       </c>
       <c r="G5">
-        <v>30085</v>
+        <v>31589</v>
       </c>
       <c r="H5">
-        <v>30935</v>
+        <v>32481</v>
       </c>
       <c r="I5">
-        <v>40659</v>
+        <v>42691</v>
       </c>
       <c r="J5">
-        <v>31246</v>
+        <v>32808</v>
       </c>
       <c r="K5">
         <f>SUM(B5:J5)/9</f>
-        <v>32396.666666666668</v>
+        <v>34016</v>
+      </c>
+      <c r="N5">
+        <v>34016</v>
+      </c>
+      <c r="O5">
+        <v>22293.222222222223</v>
+      </c>
+      <c r="P5">
+        <f>((N5-O5)/N5)*100</f>
+        <v>34.462540503815198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>85177</v>
+        <v>89435</v>
       </c>
       <c r="C6">
-        <v>71257</v>
+        <v>74819</v>
       </c>
       <c r="D6">
-        <v>73324</v>
+        <v>76990</v>
       </c>
       <c r="E6">
-        <v>64199</v>
+        <v>67408</v>
       </c>
       <c r="F6">
-        <v>68623</v>
+        <v>72054</v>
       </c>
       <c r="G6">
-        <v>82169</v>
+        <v>86277</v>
       </c>
       <c r="H6">
-        <v>85583</v>
+        <v>89862</v>
       </c>
       <c r="I6">
-        <v>69946</v>
+        <v>73443</v>
       </c>
       <c r="J6">
-        <v>77143</v>
+        <v>81000</v>
       </c>
       <c r="K6">
         <f>SUM(B6:J6)/9</f>
-        <v>75269</v>
+        <v>79032</v>
+      </c>
+      <c r="N6">
+        <v>79032</v>
+      </c>
+      <c r="O6">
+        <v>77077</v>
+      </c>
+      <c r="P6">
+        <f>((N6-O6)/N6)*100</f>
+        <v>2.4736815467152544</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>200</v>
       </c>
       <c r="B7">
-        <v>335141</v>
+        <v>351898</v>
       </c>
       <c r="C7">
-        <v>310193</v>
+        <v>325702</v>
       </c>
       <c r="D7">
-        <v>298592</v>
+        <v>313521</v>
       </c>
       <c r="E7">
-        <v>287981</v>
+        <v>302380</v>
       </c>
       <c r="F7">
-        <v>331284</v>
+        <v>347848</v>
       </c>
       <c r="G7">
-        <v>264515</v>
+        <v>277740</v>
       </c>
       <c r="H7">
-        <v>299973</v>
+        <v>314971</v>
       </c>
       <c r="I7">
-        <v>290378</v>
+        <v>304896</v>
       </c>
       <c r="J7">
-        <v>290339</v>
+        <v>304855</v>
       </c>
       <c r="K7">
         <f>SUM(B7:J7)/9</f>
-        <v>300932.88888888888</v>
+        <v>315979</v>
+      </c>
+      <c r="N7">
+        <v>315979</v>
+      </c>
+      <c r="O7">
+        <v>290462.22222222225</v>
+      </c>
+      <c r="P7">
+        <f>((N7-O7)/N7)*100</f>
+        <v>8.0754663372495479</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1000</v>
       </c>
       <c r="B8">
-        <v>1633259</v>
+        <v>1714921</v>
       </c>
       <c r="C8">
-        <v>1577143</v>
+        <v>1656000</v>
       </c>
       <c r="D8">
-        <v>2045611</v>
+        <v>2147891</v>
       </c>
       <c r="E8">
-        <v>1476521</v>
+        <v>1550347</v>
       </c>
       <c r="F8">
-        <v>1476116</v>
+        <v>1549921</v>
       </c>
       <c r="G8">
-        <v>1477726</v>
+        <v>1551612</v>
       </c>
       <c r="H8">
-        <v>1527576</v>
+        <v>1603954</v>
       </c>
       <c r="I8">
-        <v>1489742</v>
+        <v>1564229</v>
       </c>
       <c r="J8">
-        <v>1506604</v>
+        <v>1581934</v>
       </c>
       <c r="K8">
         <f>SUM(B8:J8)/9</f>
-        <v>1578922</v>
-      </c>
+        <v>1657867.6666666667</v>
+      </c>
+      <c r="N8">
+        <v>1657867.6666666667</v>
+      </c>
+      <c r="O8">
+        <v>1487236.7777777778</v>
+      </c>
+      <c r="P8">
+        <f>((N8-O8)/N8)*100</f>
+        <v>10.292189920801217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>8279</v>
+      </c>
+      <c r="C17">
+        <v>13199</v>
+      </c>
+      <c r="D17">
+        <v>3158</v>
+      </c>
+      <c r="E17">
+        <v>3320</v>
+      </c>
+      <c r="F17">
+        <v>3183</v>
+      </c>
+      <c r="G17">
+        <v>1262</v>
+      </c>
+      <c r="H17">
+        <v>561</v>
+      </c>
+      <c r="I17">
+        <v>3666</v>
+      </c>
+      <c r="J17">
+        <v>6907</v>
+      </c>
+      <c r="K17">
+        <f>SUM(B17:J17)/9</f>
+        <v>4837.2222222222226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>6069</v>
+      </c>
+      <c r="C18">
+        <v>9146</v>
+      </c>
+      <c r="D18">
+        <v>18205</v>
+      </c>
+      <c r="E18">
+        <v>17569</v>
+      </c>
+      <c r="F18">
+        <v>15628</v>
+      </c>
+      <c r="G18">
+        <v>15913</v>
+      </c>
+      <c r="H18">
+        <v>16432</v>
+      </c>
+      <c r="I18">
+        <v>9987</v>
+      </c>
+      <c r="J18">
+        <v>10371</v>
+      </c>
+      <c r="K18">
+        <f>SUM(B18:J18)/9</f>
+        <v>13257.777777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>30426</v>
+      </c>
+      <c r="C19">
+        <v>28138</v>
+      </c>
+      <c r="D19">
+        <v>30636</v>
+      </c>
+      <c r="E19">
+        <v>20828</v>
+      </c>
+      <c r="F19">
+        <v>31095</v>
+      </c>
+      <c r="G19">
+        <v>19519</v>
+      </c>
+      <c r="H19">
+        <v>15750</v>
+      </c>
+      <c r="I19">
+        <v>9760</v>
+      </c>
+      <c r="J19">
+        <v>14487</v>
+      </c>
+      <c r="K19">
+        <f>SUM(B19:J19)/9</f>
+        <v>22293.222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>80349</v>
+      </c>
+      <c r="C20">
+        <v>79414</v>
+      </c>
+      <c r="D20">
+        <v>78116</v>
+      </c>
+      <c r="E20">
+        <v>79641</v>
+      </c>
+      <c r="F20">
+        <v>78298</v>
+      </c>
+      <c r="G20">
+        <v>72741</v>
+      </c>
+      <c r="H20">
+        <v>77562</v>
+      </c>
+      <c r="I20">
+        <v>79294</v>
+      </c>
+      <c r="J20">
+        <v>68278</v>
+      </c>
+      <c r="K20">
+        <f>SUM(B20:J20)/9</f>
+        <v>77077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>291157</v>
+      </c>
+      <c r="C21">
+        <v>295636</v>
+      </c>
+      <c r="D21">
+        <v>295072</v>
+      </c>
+      <c r="E21">
+        <v>283459</v>
+      </c>
+      <c r="F21">
+        <v>287849</v>
+      </c>
+      <c r="G21">
+        <v>289507</v>
+      </c>
+      <c r="H21">
+        <v>286876</v>
+      </c>
+      <c r="I21">
+        <v>287963</v>
+      </c>
+      <c r="J21">
+        <v>296641</v>
+      </c>
+      <c r="K21">
+        <f>SUM(B21:J21)/9</f>
+        <v>290462.22222222225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B22">
+        <v>1470750</v>
+      </c>
+      <c r="C22">
+        <v>1472948</v>
+      </c>
+      <c r="D22">
+        <v>1458925</v>
+      </c>
+      <c r="E22">
+        <v>1520197</v>
+      </c>
+      <c r="F22">
+        <v>1471430</v>
+      </c>
+      <c r="G22">
+        <v>1469680</v>
+      </c>
+      <c r="H22">
+        <v>1503777</v>
+      </c>
+      <c r="I22">
+        <v>1500502</v>
+      </c>
+      <c r="J22">
+        <v>1516922</v>
+      </c>
+      <c r="K22">
+        <f>SUM(B22:J22)/9</f>
+        <v>1487236.7777777778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:K16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>